--- a/Requerimientos.xlsx
+++ b/Requerimientos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darbi\Desktop\Darbin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0023EBEE-E68E-4C0F-997B-DD75B6BCEFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Requerimientos </t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrada </t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +365,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requerimientos.xlsx
+++ b/Requerimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darbi\Desktop\Darbin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0023EBEE-E68E-4C0F-997B-DD75B6BCEFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F69459-A540-466A-97B1-76D47684868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Requerimientos </t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>Tipo</t>
+  </si>
+  <si>
+    <t>ingresar usuario</t>
+  </si>
+  <si>
+    <t>ingresa el nombre de usuario creado previamente</t>
+  </si>
+  <si>
+    <t>correo electronico, contraseña, confirmar capchat</t>
+  </si>
+  <si>
+    <t>sesion iniciada</t>
+  </si>
+  <si>
+    <t>funcional</t>
   </si>
 </sst>
 </file>
@@ -84,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,13 +387,13 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
@@ -407,9 +425,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
